--- a/StagingTemplates/Staging.Framework_Project.xlsx
+++ b/StagingTemplates/Staging.Framework_Project.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="2760"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12585"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,10 +32,10 @@
     <t>Framework_Project_ID</t>
   </si>
   <si>
-    <t>FrameworkSourceKey</t>
+    <t>FrameworkBusinessKey</t>
   </si>
   <si>
-    <t>ProjectSourceKey</t>
+    <t>ProjectBusinessKey</t>
   </si>
 </sst>
 </file>
@@ -363,7 +363,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet16"/>
+  <sheetPr codeName="Sheet18"/>
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -371,8 +371,6 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="41" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">

--- a/StagingTemplates/Staging.Framework_Project.xlsx
+++ b/StagingTemplates/Staging.Framework_Project.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gnicoloud\Documents\My Docs\Meerkat\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Aphelion\Clients\Aphelion\Meerkat\generate staging templates macro\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12585"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="28800" windowHeight="12420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
